--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -522,8 +522,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1272,16 +1273,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1569,7 +1570,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -24,40 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>4,73</t>
-  </si>
-  <si>
-    <t>-5,85</t>
-  </si>
-  <si>
-    <t>3,40</t>
-  </si>
-  <si>
-    <t>-5,17</t>
-  </si>
-  <si>
-    <t>1,77</t>
-  </si>
-  <si>
-    <t>-0,084</t>
-  </si>
-  <si>
-    <t>0,12</t>
-  </si>
-  <si>
-    <t>-0,072</t>
-  </si>
-  <si>
-    <t>1,35</t>
-  </si>
-  <si>
-    <t>-2,24</t>
-  </si>
-  <si>
-    <t>0,961</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Real</t>
   </si>
@@ -66,6 +33,9 @@
   </si>
   <si>
     <t>Así, o por ejemplo la diferencia en cada valor.</t>
+  </si>
+  <si>
+    <t>Porcentaje</t>
   </si>
 </sst>
 </file>
@@ -134,17 +104,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,10 +116,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -691,7 +659,424 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Porcentaje</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.7300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4000000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1999999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7CD-48FE-99A2-FE81ADEF71A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="805430671"/>
+        <c:axId val="805434831"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="805430671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805434831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="805434831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="805430671"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1269,6 +1654,544 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1276,13 +2199,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1296,6 +2219,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1567,23 +2520,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="6" width="11.42578125" style="6"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -1593,167 +2552,215 @@
       <c r="D2" s="1">
         <v>125.68</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
+      <c r="E2" s="7">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="F2" s="6">
+        <f>ABS(E2)</f>
+        <v>4.7300000000000004</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>180</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>169.46</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
+      <c r="E3" s="8">
+        <v>-5.85</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F13" si="0">ABS(E3)</f>
+        <v>5.85</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="4">
         <v>240</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>243.16</v>
       </c>
-      <c r="E4" s="8">
-        <v>1316</v>
+      <c r="E4" s="9">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3160000000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>360</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>372.26</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
+      <c r="E5" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="4">
         <v>470</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>445.7</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>3</v>
+      <c r="E6" s="9">
+        <v>-5.17</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>5.17</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>530</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>539.41999999999996</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
+      <c r="E7" s="8">
+        <v>1.77</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.77</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="4">
         <v>590</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>589.5</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
+      <c r="E8" s="9">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>650</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>650.78</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>6</v>
+      <c r="E9" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="4">
         <v>710</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>709.49</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>7</v>
+      <c r="E10" s="9">
+        <v>-7.1999999999999995E-2</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>830</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>841.21</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
+      <c r="E11" s="8">
+        <v>1.35</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>1.35</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="4">
         <v>940</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>918.97</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>9</v>
+      <c r="E12" s="9">
+        <v>-2.2400000000000002</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>1000</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1009.61</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
+      <c r="E13" s="8">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.96099999999999997</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Graficas.xlsx
+++ b/Graficas.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.0" hidden="1">Hoja1!$C$2:$C$13</definedName>
+    <definedName name="_xlchart.1" hidden="1">Hoja1!$F$1</definedName>
+    <definedName name="_xlchart.2" hidden="1">Hoja1!$F$2:$F$13</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -897,8 +902,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2522,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
